--- a/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
@@ -13,14 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="golf" sheetId="1" r:id="rId1"/>
-    <sheet name="Definition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Outlook</t>
   </si>
@@ -55,13 +54,19 @@
     <t>#0</t>
   </si>
   <si>
-    <t>golf[outlook]</t>
+    <t>typedef</t>
   </si>
   <si>
-    <t>golf[wind]</t>
+    <t>Boolean</t>
   </si>
   <si>
-    <t>golf[play]</t>
+    <t>YesOrNo</t>
+  </si>
+  <si>
+    <t>column-def</t>
+  </si>
+  <si>
+    <t>#1</t>
   </si>
 </sst>
 </file>
@@ -851,112 +856,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A2:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -970,30 +959,30 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1001,16 +990,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1018,16 +1007,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1035,19 +1024,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,13 +1044,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1069,16 +1058,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1086,16 +1075,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1103,415 +1092,531 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f>VLOOKUP(A2,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <f>B2</f>
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <f>C2</f>
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <f>IF(D2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(E2,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>VLOOKUP(A3,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:C20" si="0">B3</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VLOOKUP(A4,A$37:B$39,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>B4</f>
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <f>C4</f>
+        <v>85</v>
+      </c>
+      <c r="D21">
+        <f>VLOOKUP(D4,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>VLOOKUP(A5,A$37:B$39,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:C22" si="0">B5</f>
         <v>80</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D32" si="1">IF(D3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(E3,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <f>VLOOKUP(A4,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <f t="shared" ref="B21:C21" si="2">B4</f>
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>VLOOKUP(E4,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <f>VLOOKUP(A5,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22:C22" si="3">B5</f>
-        <v>70</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="3"/>
-        <v>96</v>
-      </c>
       <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f>VLOOKUP(E5,Definition!$A$10:$B$11,2,FALSE)</f>
+        <f>VLOOKUP(D5,A$42:B$43,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>VLOOKUP(A6,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(A6,A$37:B$39,2,FALSE)</f>
+        <v>1</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:C23" si="4">B6</f>
-        <v>68</v>
+        <f t="shared" ref="B23:C23" si="1">B6</f>
+        <v>83</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>78</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>VLOOKUP(E6,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(D6,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>VLOOKUP(A7,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f>VLOOKUP(A7,A$37:B$39,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="5">B7</f>
-        <v>65</v>
+        <f t="shared" ref="B24:C24" si="2">B7</f>
+        <v>70</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(E7,Definition!$A$10:$B$11,2,FALSE)</f>
+        <f>VLOOKUP(D7,A$42:B$43,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>VLOOKUP(A8,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(A8,A$37:B$39,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:C25" si="6">B8</f>
-        <v>64</v>
+        <f t="shared" ref="B25:C25" si="3">B8</f>
+        <v>68</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
-        <v>65</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(E8,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(D8,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>VLOOKUP(A9,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(A9,A$37:B$39,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:C26" si="7">B9</f>
-        <v>72</v>
+        <f t="shared" ref="B26:C26" si="4">B9</f>
+        <v>65</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
-        <v>95</v>
+        <f t="shared" si="4"/>
+        <v>70</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>VLOOKUP(E9,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(D9,A$42:B$43,2,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>VLOOKUP(A10,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f>VLOOKUP(A10,A$37:B$39,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="8">B10</f>
-        <v>69</v>
+        <f t="shared" ref="B27:C27" si="5">B10</f>
+        <v>64</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f t="shared" si="5"/>
+        <v>65</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(E10,Definition!$A$10:$B$11,2,FALSE)</f>
+        <f>VLOOKUP(D10,A$42:B$43,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>VLOOKUP(A11,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(A11,A$37:B$39,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C28" si="9">B11</f>
-        <v>75</v>
+        <f t="shared" ref="B28:C28" si="6">B11</f>
+        <v>72</v>
       </c>
       <c r="C28">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>95</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>VLOOKUP(E11,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(D11,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>VLOOKUP(A12,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(A12,A$37:B$39,2,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:C29" si="10">B12</f>
-        <v>75</v>
+        <f t="shared" ref="B29:C29" si="7">B12</f>
+        <v>69</v>
       </c>
       <c r="C29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f>VLOOKUP(E12,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(D12,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>VLOOKUP(A13,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(A13,A$37:B$39,2,FALSE)</f>
+        <v>2</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:C30" si="11">B13</f>
-        <v>72</v>
+        <f t="shared" ref="B30:C30" si="8">B13</f>
+        <v>75</v>
       </c>
       <c r="C30">
-        <f t="shared" si="11"/>
-        <v>90</v>
+        <f t="shared" si="8"/>
+        <v>80</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(E13,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f>VLOOKUP(D13,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>VLOOKUP(A14,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f>VLOOKUP(A14,A$37:B$39,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="12">B14</f>
-        <v>81</v>
+        <f t="shared" ref="B31:C31" si="9">B14</f>
+        <v>75</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
-        <v>75</v>
+        <f t="shared" si="9"/>
+        <v>70</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>VLOOKUP(E14,Definition!$A$10:$B$11,2,FALSE)</f>
+        <f>VLOOKUP(D14,A$42:B$43,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>VLOOKUP(A15,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f>VLOOKUP(A15,A$37:B$39,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:C32" si="10">B15</f>
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <f>VLOOKUP(D15,A$42:B$43,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f>VLOOKUP(A16,A$37:B$39,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:C33" si="11">B16</f>
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <f>VLOOKUP(D16,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f>VLOOKUP(A17,A$37:B$39,2,FALSE)</f>
         <v>2</v>
       </c>
-      <c r="B32">
-        <f t="shared" ref="B32:C32" si="13">B15</f>
+      <c r="B34">
+        <f t="shared" ref="B34:C34" si="12">B17</f>
         <v>71</v>
       </c>
-      <c r="C32">
+      <c r="C34">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <f>VLOOKUP(D17,A$42:B$43,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A20</f>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>VLOOKUP(E4,A$46:B$47,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ref="A52:A64" si="13">VLOOKUP(E5,A$46:B$47,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
         <f t="shared" si="13"/>
-        <v>80</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f>VLOOKUP(E15,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>VLOOKUP(E14,A$46:B$47,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="C67" t="str">
+        <f>B41</f>
+        <v>Boolean</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="str">
+        <f>B45</f>
+        <v>YesOrNo</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="golf" sheetId="1" r:id="rId1"/>
+    <sheet name="iris" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
   <si>
     <t>Outlook</t>
   </si>
@@ -67,6 +68,33 @@
   </si>
   <si>
     <t>#1</t>
+  </si>
+  <si>
+    <t>Virginica</t>
+  </si>
+  <si>
+    <t>Versicolor</t>
+  </si>
+  <si>
+    <t>Setosa</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>petal.width</t>
+  </si>
+  <si>
+    <t>petal.length</t>
+  </si>
+  <si>
+    <t>sepal.width</t>
+  </si>
+  <si>
+    <t>sepal.length</t>
+  </si>
+  <si>
+    <t>iris-variety</t>
   </si>
 </sst>
 </file>
@@ -858,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,12 +1179,12 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>VLOOKUP(A4,A$37:B$39,2,FALSE)</f>
+        <f t="shared" ref="A21:A34" si="0">VLOOKUP(A4,A$37:B$39,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="B21">
@@ -1168,241 +1196,241 @@
         <v>85</v>
       </c>
       <c r="D21">
-        <f>VLOOKUP(D4,A$42:B$43,2,FALSE)</f>
+        <f t="shared" ref="D21:D34" si="1">VLOOKUP(D4,A$42:B$43,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>VLOOKUP(A5,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:C22" si="0">B5</f>
+        <f t="shared" ref="B22:C22" si="2">B5</f>
         <v>80</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="D22">
-        <f>VLOOKUP(D5,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>VLOOKUP(A6,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:C23" si="1">B6</f>
+        <f t="shared" ref="B23:C23" si="3">B6</f>
         <v>83</v>
       </c>
       <c r="C23">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="D23">
         <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <f>VLOOKUP(D6,A$42:B$43,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>VLOOKUP(A7,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="2">B7</f>
+        <f t="shared" ref="B24:C24" si="4">B7</f>
         <v>70</v>
       </c>
       <c r="C24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="D24">
-        <f>VLOOKUP(D7,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>VLOOKUP(A8,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:C25" si="3">B8</f>
+        <f t="shared" ref="B25:C25" si="5">B8</f>
         <v>68</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="D25">
-        <f>VLOOKUP(D8,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>VLOOKUP(A9,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:C26" si="4">B9</f>
+        <f t="shared" ref="B26:C26" si="6">B9</f>
         <v>65</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="D26">
-        <f>VLOOKUP(D9,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>VLOOKUP(A10,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="5">B10</f>
+        <f t="shared" ref="B27:C27" si="7">B10</f>
         <v>64</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="D27">
-        <f>VLOOKUP(D10,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>VLOOKUP(A11,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C28" si="6">B11</f>
+        <f t="shared" ref="B28:C28" si="8">B11</f>
         <v>72</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="D28">
-        <f>VLOOKUP(D11,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>VLOOKUP(A12,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:C29" si="7">B12</f>
+        <f t="shared" ref="B29:C29" si="9">B12</f>
         <v>69</v>
       </c>
       <c r="C29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D29">
-        <f>VLOOKUP(D12,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>VLOOKUP(A13,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:C30" si="8">B13</f>
+        <f t="shared" ref="B30:C30" si="10">B13</f>
         <v>75</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="D30">
-        <f>VLOOKUP(D13,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>VLOOKUP(A14,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="9">B14</f>
+        <f t="shared" ref="B31:C31" si="11">B14</f>
         <v>75</v>
       </c>
       <c r="C31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="D31">
-        <f>VLOOKUP(D14,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>VLOOKUP(A15,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:C32" si="10">B15</f>
+        <f t="shared" ref="B32:C32" si="12">B15</f>
         <v>72</v>
       </c>
       <c r="C32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="D32">
-        <f>VLOOKUP(D15,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f>VLOOKUP(A16,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:C33" si="11">B16</f>
+        <f t="shared" ref="B33:C33" si="13">B16</f>
         <v>81</v>
       </c>
       <c r="C33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="D33">
-        <f>VLOOKUP(D16,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f>VLOOKUP(A17,A$37:B$39,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:C34" si="12">B17</f>
+        <f t="shared" ref="B34:C34" si="14">B17</f>
         <v>71</v>
       </c>
       <c r="C34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(D17,A$42:B$43,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1472,7 +1500,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1480,7 +1508,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1503,85 +1531,85 @@
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>VLOOKUP(E4,A$46:B$47,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" ref="A52:A64" si="13">VLOOKUP(E5,A$46:B$47,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" ref="A52:A64" si="15">VLOOKUP(E5,A$46:B$47,2,FALSE)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <f>VLOOKUP(E14,A$46:B$47,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1600,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C67" t="str">
         <f>B41</f>
@@ -1617,6 +1645,6270 @@
       <c r="C68" t="str">
         <f>B45</f>
         <v>YesOrNo</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E464"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.7</v>
+      </c>
+      <c r="B4">
+        <v>3.2</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>3.1</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.4</v>
+      </c>
+      <c r="B7">
+        <v>3.9</v>
+      </c>
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>3.4</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3.4</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10">
+        <v>2.9</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.4</v>
+      </c>
+      <c r="B12">
+        <v>3.7</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.8</v>
+      </c>
+      <c r="B13">
+        <v>3.4</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.8</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4.3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.8</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5.7</v>
+      </c>
+      <c r="B17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.4</v>
+      </c>
+      <c r="B18">
+        <v>3.9</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B19">
+        <v>3.5</v>
+      </c>
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.7</v>
+      </c>
+      <c r="B20">
+        <v>3.8</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21">
+        <v>3.8</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5.4</v>
+      </c>
+      <c r="B22">
+        <v>3.4</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23">
+        <v>3.7</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B24">
+        <v>3.6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>3.3</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
+        <v>3.4</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1.6</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3.4</v>
+      </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <v>0.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5.2</v>
+      </c>
+      <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5.2</v>
+      </c>
+      <c r="B30">
+        <v>3.4</v>
+      </c>
+      <c r="C30">
+        <v>1.4</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4.7</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4.8</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5.4</v>
+      </c>
+      <c r="B33">
+        <v>3.4</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>0.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5.2</v>
+      </c>
+      <c r="B34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5.5</v>
+      </c>
+      <c r="B35">
+        <v>4.2</v>
+      </c>
+      <c r="C35">
+        <v>1.4</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3.2</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5.5</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B39">
+        <v>3.6</v>
+      </c>
+      <c r="C39">
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1.3</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B41">
+        <v>3.4</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>3.5</v>
+      </c>
+      <c r="C42">
+        <v>1.3</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4.5</v>
+      </c>
+      <c r="B43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C43">
+        <v>1.3</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B44">
+        <v>3.2</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>3.5</v>
+      </c>
+      <c r="C45">
+        <v>1.6</v>
+      </c>
+      <c r="D45">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B46">
+        <v>3.8</v>
+      </c>
+      <c r="C46">
+        <v>1.9</v>
+      </c>
+      <c r="D46">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4.8</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1.4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B48">
+        <v>3.8</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49">
+        <v>3.2</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5.3</v>
+      </c>
+      <c r="B50">
+        <v>3.7</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>3.3</v>
+      </c>
+      <c r="C51">
+        <v>1.4</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>3.2</v>
+      </c>
+      <c r="C52">
+        <v>4.7</v>
+      </c>
+      <c r="D52">
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.4</v>
+      </c>
+      <c r="B53">
+        <v>3.2</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>1.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.9</v>
+      </c>
+      <c r="B54">
+        <v>3.1</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5.5</v>
+      </c>
+      <c r="B55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1.3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6.5</v>
+      </c>
+      <c r="B56">
+        <v>2.8</v>
+      </c>
+      <c r="C56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5.7</v>
+      </c>
+      <c r="B57">
+        <v>2.8</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>1.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6.3</v>
+      </c>
+      <c r="B58">
+        <v>3.3</v>
+      </c>
+      <c r="C58">
+        <v>4.7</v>
+      </c>
+      <c r="D58">
+        <v>1.6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B59">
+        <v>2.4</v>
+      </c>
+      <c r="C59">
+        <v>3.3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6.6</v>
+      </c>
+      <c r="B60">
+        <v>2.9</v>
+      </c>
+      <c r="C60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.2</v>
+      </c>
+      <c r="B61">
+        <v>2.7</v>
+      </c>
+      <c r="C61">
+        <v>3.9</v>
+      </c>
+      <c r="D61">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3.5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5.9</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4.2</v>
+      </c>
+      <c r="D63">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6.1</v>
+      </c>
+      <c r="B65">
+        <v>2.9</v>
+      </c>
+      <c r="C65">
+        <v>4.7</v>
+      </c>
+      <c r="D65">
+        <v>1.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5.6</v>
+      </c>
+      <c r="B66">
+        <v>2.9</v>
+      </c>
+      <c r="C66">
+        <v>3.6</v>
+      </c>
+      <c r="D66">
+        <v>1.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6.7</v>
+      </c>
+      <c r="B67">
+        <v>3.1</v>
+      </c>
+      <c r="C67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>1.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5.6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5.8</v>
+      </c>
+      <c r="B69">
+        <v>2.7</v>
+      </c>
+      <c r="C69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6.2</v>
+      </c>
+      <c r="B70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5.6</v>
+      </c>
+      <c r="B71">
+        <v>2.5</v>
+      </c>
+      <c r="C71">
+        <v>3.9</v>
+      </c>
+      <c r="D71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5.9</v>
+      </c>
+      <c r="B72">
+        <v>3.2</v>
+      </c>
+      <c r="C72">
+        <v>4.8</v>
+      </c>
+      <c r="D72">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6.1</v>
+      </c>
+      <c r="B73">
+        <v>2.8</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>6.3</v>
+      </c>
+      <c r="B74">
+        <v>2.5</v>
+      </c>
+      <c r="C74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>6.1</v>
+      </c>
+      <c r="B75">
+        <v>2.8</v>
+      </c>
+      <c r="C75">
+        <v>4.7</v>
+      </c>
+      <c r="D75">
+        <v>1.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6.4</v>
+      </c>
+      <c r="B76">
+        <v>2.9</v>
+      </c>
+      <c r="C76">
+        <v>4.3</v>
+      </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6.6</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>1.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6.8</v>
+      </c>
+      <c r="B78">
+        <v>2.8</v>
+      </c>
+      <c r="C78">
+        <v>4.8</v>
+      </c>
+      <c r="D78">
+        <v>1.4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6.7</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>2.9</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5.7</v>
+      </c>
+      <c r="B81">
+        <v>2.6</v>
+      </c>
+      <c r="C81">
+        <v>3.5</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5.5</v>
+      </c>
+      <c r="B82">
+        <v>2.4</v>
+      </c>
+      <c r="C82">
+        <v>3.8</v>
+      </c>
+      <c r="D82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5.5</v>
+      </c>
+      <c r="B83">
+        <v>2.4</v>
+      </c>
+      <c r="C83">
+        <v>3.7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5.8</v>
+      </c>
+      <c r="B84">
+        <v>2.7</v>
+      </c>
+      <c r="C84">
+        <v>3.9</v>
+      </c>
+      <c r="D84">
+        <v>1.2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>2.7</v>
+      </c>
+      <c r="C85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>1.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5.4</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>4.5</v>
+      </c>
+      <c r="D86">
+        <v>1.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>3.4</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6.7</v>
+      </c>
+      <c r="B88">
+        <v>3.1</v>
+      </c>
+      <c r="C88">
+        <v>4.7</v>
+      </c>
+      <c r="D88">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6.3</v>
+      </c>
+      <c r="B89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D89">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5.6</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5.5</v>
+      </c>
+      <c r="B91">
+        <v>2.5</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1.3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5.5</v>
+      </c>
+      <c r="B92">
+        <v>2.6</v>
+      </c>
+      <c r="C92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D92">
+        <v>1.2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6.1</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D93">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5.8</v>
+      </c>
+      <c r="B94">
+        <v>2.6</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C95">
+        <v>3.3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5.6</v>
+      </c>
+      <c r="B96">
+        <v>2.7</v>
+      </c>
+      <c r="C96">
+        <v>4.2</v>
+      </c>
+      <c r="D96">
+        <v>1.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5.7</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>4.2</v>
+      </c>
+      <c r="D97">
+        <v>1.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5.7</v>
+      </c>
+      <c r="B98">
+        <v>2.9</v>
+      </c>
+      <c r="C98">
+        <v>4.2</v>
+      </c>
+      <c r="D98">
+        <v>1.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6.2</v>
+      </c>
+      <c r="B99">
+        <v>2.9</v>
+      </c>
+      <c r="C99">
+        <v>4.3</v>
+      </c>
+      <c r="D99">
+        <v>1.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B100">
+        <v>2.5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5.7</v>
+      </c>
+      <c r="B101">
+        <v>2.8</v>
+      </c>
+      <c r="C101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>1.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.3</v>
+      </c>
+      <c r="B102">
+        <v>3.3</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>2.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5.8</v>
+      </c>
+      <c r="B103">
+        <v>2.7</v>
+      </c>
+      <c r="C103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D103">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7.1</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>5.9</v>
+      </c>
+      <c r="D104">
+        <v>2.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6.3</v>
+      </c>
+      <c r="B105">
+        <v>2.9</v>
+      </c>
+      <c r="C105">
+        <v>5.6</v>
+      </c>
+      <c r="D105">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6.5</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5.8</v>
+      </c>
+      <c r="D106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>7.6</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>6.6</v>
+      </c>
+      <c r="D107">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B108">
+        <v>2.5</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>7.3</v>
+      </c>
+      <c r="B109">
+        <v>2.9</v>
+      </c>
+      <c r="C109">
+        <v>6.3</v>
+      </c>
+      <c r="D109">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6.7</v>
+      </c>
+      <c r="B110">
+        <v>2.5</v>
+      </c>
+      <c r="C110">
+        <v>5.8</v>
+      </c>
+      <c r="D110">
+        <v>1.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>7.2</v>
+      </c>
+      <c r="B111">
+        <v>3.6</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
+        <v>2.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6.5</v>
+      </c>
+      <c r="B112">
+        <v>3.2</v>
+      </c>
+      <c r="C112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>6.4</v>
+      </c>
+      <c r="B113">
+        <v>2.7</v>
+      </c>
+      <c r="C113">
+        <v>5.3</v>
+      </c>
+      <c r="D113">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>6.8</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>5.5</v>
+      </c>
+      <c r="D114">
+        <v>2.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5.7</v>
+      </c>
+      <c r="B115">
+        <v>2.5</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5.8</v>
+      </c>
+      <c r="B116">
+        <v>2.8</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>2.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>6.4</v>
+      </c>
+      <c r="B117">
+        <v>3.2</v>
+      </c>
+      <c r="C117">
+        <v>5.3</v>
+      </c>
+      <c r="D117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>6.5</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>1.8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>7.7</v>
+      </c>
+      <c r="B119">
+        <v>3.8</v>
+      </c>
+      <c r="C119">
+        <v>6.7</v>
+      </c>
+      <c r="D119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>7.7</v>
+      </c>
+      <c r="B120">
+        <v>2.6</v>
+      </c>
+      <c r="C120">
+        <v>6.9</v>
+      </c>
+      <c r="D120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>6.9</v>
+      </c>
+      <c r="B122">
+        <v>3.2</v>
+      </c>
+      <c r="C122">
+        <v>5.7</v>
+      </c>
+      <c r="D122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5.6</v>
+      </c>
+      <c r="B123">
+        <v>2.8</v>
+      </c>
+      <c r="C123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>7.7</v>
+      </c>
+      <c r="B124">
+        <v>2.8</v>
+      </c>
+      <c r="C124">
+        <v>6.7</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>6.3</v>
+      </c>
+      <c r="B125">
+        <v>2.7</v>
+      </c>
+      <c r="C125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D125">
+        <v>1.8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6.7</v>
+      </c>
+      <c r="B126">
+        <v>3.3</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>2.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>7.2</v>
+      </c>
+      <c r="B127">
+        <v>3.2</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>1.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>6.2</v>
+      </c>
+      <c r="B128">
+        <v>2.8</v>
+      </c>
+      <c r="C128">
+        <v>4.8</v>
+      </c>
+      <c r="D128">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>6.1</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D129">
+        <v>1.8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>6.4</v>
+      </c>
+      <c r="B130">
+        <v>2.8</v>
+      </c>
+      <c r="C130">
+        <v>5.6</v>
+      </c>
+      <c r="D130">
+        <v>2.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>7.2</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>5.8</v>
+      </c>
+      <c r="D131">
+        <v>1.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>7.4</v>
+      </c>
+      <c r="B132">
+        <v>2.8</v>
+      </c>
+      <c r="C132">
+        <v>6.1</v>
+      </c>
+      <c r="D132">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>7.9</v>
+      </c>
+      <c r="B133">
+        <v>3.8</v>
+      </c>
+      <c r="C133">
+        <v>6.4</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>6.4</v>
+      </c>
+      <c r="B134">
+        <v>2.8</v>
+      </c>
+      <c r="C134">
+        <v>5.6</v>
+      </c>
+      <c r="D134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>6.3</v>
+      </c>
+      <c r="B135">
+        <v>2.8</v>
+      </c>
+      <c r="C135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D135">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>6.1</v>
+      </c>
+      <c r="B136">
+        <v>2.6</v>
+      </c>
+      <c r="C136">
+        <v>5.6</v>
+      </c>
+      <c r="D136">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>7.7</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>6.1</v>
+      </c>
+      <c r="D137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>6.3</v>
+      </c>
+      <c r="B138">
+        <v>3.4</v>
+      </c>
+      <c r="C138">
+        <v>5.6</v>
+      </c>
+      <c r="D138">
+        <v>2.4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>6.4</v>
+      </c>
+      <c r="B139">
+        <v>3.1</v>
+      </c>
+      <c r="C139">
+        <v>5.5</v>
+      </c>
+      <c r="D139">
+        <v>1.8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>4.8</v>
+      </c>
+      <c r="D140">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6.9</v>
+      </c>
+      <c r="B141">
+        <v>3.1</v>
+      </c>
+      <c r="C141">
+        <v>5.4</v>
+      </c>
+      <c r="D141">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>6.7</v>
+      </c>
+      <c r="B142">
+        <v>3.1</v>
+      </c>
+      <c r="C142">
+        <v>5.6</v>
+      </c>
+      <c r="D142">
+        <v>2.4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>6.9</v>
+      </c>
+      <c r="B143">
+        <v>3.1</v>
+      </c>
+      <c r="C143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5.8</v>
+      </c>
+      <c r="B144">
+        <v>2.7</v>
+      </c>
+      <c r="C144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D144">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>6.8</v>
+      </c>
+      <c r="B145">
+        <v>3.2</v>
+      </c>
+      <c r="C145">
+        <v>5.9</v>
+      </c>
+      <c r="D145">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>6.7</v>
+      </c>
+      <c r="B146">
+        <v>3.3</v>
+      </c>
+      <c r="C146">
+        <v>5.7</v>
+      </c>
+      <c r="D146">
+        <v>2.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>6.7</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>5.2</v>
+      </c>
+      <c r="D147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>6.3</v>
+      </c>
+      <c r="B148">
+        <v>2.5</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6.5</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>5.2</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>6.2</v>
+      </c>
+      <c r="B150">
+        <v>3.4</v>
+      </c>
+      <c r="C150">
+        <v>5.4</v>
+      </c>
+      <c r="D150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>5.9</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D151">
+        <v>1.8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f>E2</f>
+        <v>Setosa</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f>E52</f>
+        <v>Versicolor</v>
+      </c>
+      <c r="B155">
+        <f>B154+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="str">
+        <f>E102</f>
+        <v>Virginica</v>
+      </c>
+      <c r="B156">
+        <f>B155+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>-1</v>
+      </c>
+      <c r="C158" t="str">
+        <f>B153</f>
+        <v>iris-variety</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>150</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f>A2</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ref="B162:D162" si="0">B2</f>
+        <v>3.5</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" ref="A163:D163" si="1">A3</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" ref="A164:D164" si="2">A4</f>
+        <v>4.7</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" ref="A165:D165" si="3">A5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" ref="A166:D166" si="4">A6</f>
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" ref="A167:D167" si="5">A7</f>
+        <v>5.4</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="5"/>
+        <v>3.9</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" ref="A168:D168" si="6">A8</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="6"/>
+        <v>3.4</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" ref="A169:D169" si="7">A9</f>
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" ref="A170:D170" si="8">A10</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>2.9</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" ref="A171:D171" si="9">A11</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" ref="A172:D172" si="10">A12</f>
+        <v>5.4</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="10"/>
+        <v>3.7</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" ref="A173:D173" si="11">A13</f>
+        <v>4.8</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="11"/>
+        <v>3.4</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" ref="A174:D174" si="12">A14</f>
+        <v>4.8</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" ref="A175:D175" si="13">A15</f>
+        <v>4.3</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="13"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" ref="A176:D176" si="14">A16</f>
+        <v>5.8</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" ref="A177:D177" si="15">A17</f>
+        <v>5.7</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" ref="A178:D178" si="16">A18</f>
+        <v>5.4</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="16"/>
+        <v>3.9</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="16"/>
+        <v>1.3</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" ref="A179:D179" si="17">A19</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="17"/>
+        <v>1.4</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" ref="A180:D180" si="18">A20</f>
+        <v>5.7</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="18"/>
+        <v>3.8</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="18"/>
+        <v>1.7</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" ref="A181:D181" si="19">A21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="19"/>
+        <v>3.8</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" ref="A182:D182" si="20">A22</f>
+        <v>5.4</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="20"/>
+        <v>3.4</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="20"/>
+        <v>1.7</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" ref="A183:D183" si="21">A23</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="21"/>
+        <v>3.7</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" ref="A184:D184" si="22">A24</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="22"/>
+        <v>3.6</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" ref="A185:D185" si="23">A25</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="23"/>
+        <v>3.3</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="23"/>
+        <v>1.7</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" ref="A186:D186" si="24">A26</f>
+        <v>4.8</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="24"/>
+        <v>3.4</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="24"/>
+        <v>1.9</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" ref="A187:D187" si="25">A27</f>
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="25"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" ref="A188:D188" si="26">A28</f>
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="26"/>
+        <v>3.4</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="26"/>
+        <v>1.6</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" ref="A189:D189" si="27">A29</f>
+        <v>5.2</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" ref="A190:D190" si="28">A30</f>
+        <v>5.2</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="28"/>
+        <v>3.4</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="28"/>
+        <v>1.4</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" ref="A191:D191" si="29">A31</f>
+        <v>4.7</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="29"/>
+        <v>3.2</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="29"/>
+        <v>1.6</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="29"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" ref="A192:D192" si="30">A32</f>
+        <v>4.8</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="30"/>
+        <v>3.1</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="30"/>
+        <v>1.6</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="30"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" ref="A193:D193" si="31">A33</f>
+        <v>5.4</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="31"/>
+        <v>3.4</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="31"/>
+        <v>1.5</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="31"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" ref="A194:D194" si="32">A34</f>
+        <v>5.2</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="32"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" ref="A195:D195" si="33">A35</f>
+        <v>5.5</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="33"/>
+        <v>4.2</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="33"/>
+        <v>1.4</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" ref="A196:D196" si="34">A36</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="34"/>
+        <v>3.1</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="34"/>
+        <v>1.5</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" ref="A197:D197" si="35">A37</f>
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="35"/>
+        <v>3.2</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="35"/>
+        <v>1.2</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="35"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" ref="A198:D198" si="36">A38</f>
+        <v>5.5</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="36"/>
+        <v>3.5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="36"/>
+        <v>1.3</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="36"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" ref="A199:D199" si="37">A39</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="37"/>
+        <v>3.6</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="37"/>
+        <v>1.4</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="37"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" ref="A200:D200" si="38">A40</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="38"/>
+        <v>1.3</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="38"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" ref="A201:D201" si="39">A41</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="39"/>
+        <v>3.4</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" ref="A202:D202" si="40">A42</f>
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="40"/>
+        <v>3.5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="40"/>
+        <v>1.3</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="40"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" ref="A203:D203" si="41">A43</f>
+        <v>4.5</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="41"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="41"/>
+        <v>1.3</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" ref="A204:D204" si="42">A44</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="42"/>
+        <v>3.2</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="42"/>
+        <v>1.3</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="42"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" ref="A205:D205" si="43">A45</f>
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="43"/>
+        <v>3.5</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="43"/>
+        <v>1.6</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="43"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" ref="A206:D206" si="44">A46</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="44"/>
+        <v>3.8</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="44"/>
+        <v>1.9</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="44"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" ref="A207:D207" si="45">A47</f>
+        <v>4.8</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="45"/>
+        <v>1.4</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="45"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" ref="A208:D208" si="46">A48</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="46"/>
+        <v>3.8</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="46"/>
+        <v>1.6</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="46"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" ref="A209:D209" si="47">A49</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="47"/>
+        <v>3.2</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="47"/>
+        <v>1.4</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="47"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" ref="A210:D210" si="48">A50</f>
+        <v>5.3</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="48"/>
+        <v>3.7</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="48"/>
+        <v>1.5</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="48"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" ref="A211:D211" si="49">A51</f>
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="49"/>
+        <v>3.3</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="49"/>
+        <v>1.4</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" ref="A212:D212" si="50">A52</f>
+        <v>7</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="50"/>
+        <v>3.2</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="50"/>
+        <v>4.7</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="50"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" ref="A213:D213" si="51">A53</f>
+        <v>6.4</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="51"/>
+        <v>3.2</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="51"/>
+        <v>4.5</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="51"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" ref="A214:D214" si="52">A54</f>
+        <v>6.9</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="52"/>
+        <v>3.1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="52"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="52"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" ref="A215:D215" si="53">A55</f>
+        <v>5.5</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="53"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="53"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" ref="A216:D216" si="54">A56</f>
+        <v>6.5</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="54"/>
+        <v>2.8</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="54"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="54"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" ref="A217:D217" si="55">A57</f>
+        <v>5.7</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="55"/>
+        <v>2.8</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="55"/>
+        <v>4.5</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="55"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" ref="A218:D218" si="56">A58</f>
+        <v>6.3</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="56"/>
+        <v>3.3</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="56"/>
+        <v>4.7</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="56"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" ref="A219:D219" si="57">A59</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="57"/>
+        <v>2.4</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="57"/>
+        <v>3.3</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" ref="A220:D220" si="58">A60</f>
+        <v>6.6</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="58"/>
+        <v>2.9</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="58"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="58"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" ref="A221:D221" si="59">A61</f>
+        <v>5.2</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="59"/>
+        <v>2.7</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="59"/>
+        <v>3.9</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="59"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" ref="A222:D222" si="60">A62</f>
+        <v>5</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="60"/>
+        <v>3.5</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" ref="A223:D223" si="61">A63</f>
+        <v>5.9</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="61"/>
+        <v>4.2</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" ref="A224:D224" si="62">A64</f>
+        <v>6</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="62"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" ref="A225:D225" si="63">A65</f>
+        <v>6.1</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="63"/>
+        <v>2.9</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="63"/>
+        <v>4.7</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="63"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" ref="A226:D226" si="64">A66</f>
+        <v>5.6</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="64"/>
+        <v>2.9</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="64"/>
+        <v>3.6</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="64"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" ref="A227:D227" si="65">A67</f>
+        <v>6.7</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="65"/>
+        <v>3.1</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="65"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="65"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" ref="A228:D228" si="66">A68</f>
+        <v>5.6</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="66"/>
+        <v>4.5</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="66"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" ref="A229:D229" si="67">A69</f>
+        <v>5.8</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="67"/>
+        <v>2.7</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="67"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" ref="A230:D230" si="68">A70</f>
+        <v>6.2</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="68"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="68"/>
+        <v>4.5</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="68"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" ref="A231:D231" si="69">A71</f>
+        <v>5.6</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="69"/>
+        <v>2.5</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="69"/>
+        <v>3.9</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="69"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" ref="A232:D232" si="70">A72</f>
+        <v>5.9</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="70"/>
+        <v>3.2</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="70"/>
+        <v>4.8</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="70"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" ref="A233:D233" si="71">A73</f>
+        <v>6.1</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="71"/>
+        <v>2.8</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="71"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" ref="A234:D234" si="72">A74</f>
+        <v>6.3</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="72"/>
+        <v>2.5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="72"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="72"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" ref="A235:D235" si="73">A75</f>
+        <v>6.1</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="73"/>
+        <v>2.8</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="73"/>
+        <v>4.7</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="73"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" ref="A236:D236" si="74">A76</f>
+        <v>6.4</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="74"/>
+        <v>2.9</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="74"/>
+        <v>4.3</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="74"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" ref="A237:D237" si="75">A77</f>
+        <v>6.6</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="75"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="75"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" ref="A238:D238" si="76">A78</f>
+        <v>6.8</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="76"/>
+        <v>2.8</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="76"/>
+        <v>4.8</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="76"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" ref="A239:D239" si="77">A79</f>
+        <v>6.7</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="77"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" ref="A240:D240" si="78">A80</f>
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="78"/>
+        <v>2.9</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="78"/>
+        <v>4.5</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="78"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" ref="A241:D241" si="79">A81</f>
+        <v>5.7</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="79"/>
+        <v>2.6</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="79"/>
+        <v>3.5</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" ref="A242:D242" si="80">A82</f>
+        <v>5.5</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="80"/>
+        <v>2.4</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="80"/>
+        <v>3.8</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="80"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" ref="A243:D243" si="81">A83</f>
+        <v>5.5</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="81"/>
+        <v>2.4</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="81"/>
+        <v>3.7</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" ref="A244:D244" si="82">A84</f>
+        <v>5.8</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="82"/>
+        <v>2.7</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="82"/>
+        <v>3.9</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="82"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" ref="A245:D245" si="83">A85</f>
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="83"/>
+        <v>2.7</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="83"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="83"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" ref="A246:D246" si="84">A86</f>
+        <v>5.4</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="84"/>
+        <v>4.5</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="84"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" ref="A247:D247" si="85">A87</f>
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="85"/>
+        <v>3.4</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="85"/>
+        <v>4.5</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="85"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" ref="A248:D248" si="86">A88</f>
+        <v>6.7</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="86"/>
+        <v>3.1</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="86"/>
+        <v>4.7</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="86"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" ref="A249:D249" si="87">A89</f>
+        <v>6.3</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="87"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="87"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="87"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" ref="A250:D250" si="88">A90</f>
+        <v>5.6</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="88"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="88"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" ref="A251:D251" si="89">A91</f>
+        <v>5.5</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="89"/>
+        <v>2.5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="89"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" ref="A252:D252" si="90">A92</f>
+        <v>5.5</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="90"/>
+        <v>2.6</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="90"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="90"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" ref="A253:D253" si="91">A93</f>
+        <v>6.1</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="91"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="91"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" ref="A254:D254" si="92">A94</f>
+        <v>5.8</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="92"/>
+        <v>2.6</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="92"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" ref="A255:D255" si="93">A95</f>
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="93"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="93"/>
+        <v>3.3</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" ref="A256:D256" si="94">A96</f>
+        <v>5.6</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="94"/>
+        <v>2.7</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="94"/>
+        <v>4.2</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="94"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" ref="A257:D257" si="95">A97</f>
+        <v>5.7</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="95"/>
+        <v>4.2</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="95"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" ref="A258:D258" si="96">A98</f>
+        <v>5.7</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="96"/>
+        <v>2.9</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="96"/>
+        <v>4.2</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="96"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" ref="A259:D259" si="97">A99</f>
+        <v>6.2</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="97"/>
+        <v>2.9</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="97"/>
+        <v>4.3</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="97"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" ref="A260:D260" si="98">A100</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="98"/>
+        <v>2.5</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="98"/>
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="98"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" ref="A261:D261" si="99">A101</f>
+        <v>5.7</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="99"/>
+        <v>2.8</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="99"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="99"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" ref="A262:D262" si="100">A102</f>
+        <v>6.3</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="100"/>
+        <v>3.3</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="100"/>
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="100"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" ref="A263:D263" si="101">A103</f>
+        <v>5.8</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="101"/>
+        <v>2.7</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="101"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="101"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" ref="A264:D264" si="102">A104</f>
+        <v>7.1</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="102"/>
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="102"/>
+        <v>5.9</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="102"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" ref="A265:D265" si="103">A105</f>
+        <v>6.3</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="103"/>
+        <v>2.9</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="103"/>
+        <v>5.6</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="103"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" ref="A266:D266" si="104">A106</f>
+        <v>6.5</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="104"/>
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="104"/>
+        <v>5.8</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="104"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" ref="A267:D267" si="105">A107</f>
+        <v>7.6</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="105"/>
+        <v>6.6</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="105"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" ref="A268:D268" si="106">A108</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="106"/>
+        <v>2.5</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="106"/>
+        <v>4.5</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="106"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" ref="A269:D269" si="107">A109</f>
+        <v>7.3</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="107"/>
+        <v>2.9</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="107"/>
+        <v>6.3</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="107"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" ref="A270:D270" si="108">A110</f>
+        <v>6.7</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="108"/>
+        <v>2.5</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="108"/>
+        <v>5.8</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="108"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" ref="A271:D271" si="109">A111</f>
+        <v>7.2</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="109"/>
+        <v>3.6</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="109"/>
+        <v>6.1</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="109"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" ref="A272:D272" si="110">A112</f>
+        <v>6.5</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="110"/>
+        <v>3.2</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="110"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" ref="A273:D273" si="111">A113</f>
+        <v>6.4</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="111"/>
+        <v>2.7</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="111"/>
+        <v>5.3</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="111"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" ref="A274:D274" si="112">A114</f>
+        <v>6.8</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="112"/>
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="112"/>
+        <v>5.5</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="112"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" ref="A275:D275" si="113">A115</f>
+        <v>5.7</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="113"/>
+        <v>2.5</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" ref="A276:D276" si="114">A116</f>
+        <v>5.8</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="114"/>
+        <v>2.8</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="114"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="114"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" ref="A277:D277" si="115">A117</f>
+        <v>6.4</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="115"/>
+        <v>3.2</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="115"/>
+        <v>5.3</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="115"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" ref="A278:D278" si="116">A118</f>
+        <v>6.5</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="116"/>
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="116"/>
+        <v>5.5</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="116"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" ref="A279:D279" si="117">A119</f>
+        <v>7.7</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="117"/>
+        <v>3.8</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="117"/>
+        <v>6.7</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="117"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" ref="A280:D280" si="118">A120</f>
+        <v>7.7</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="118"/>
+        <v>2.6</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="118"/>
+        <v>6.9</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="118"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" ref="A281:D281" si="119">A121</f>
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="119"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="119"/>
+        <v>5</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="119"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" ref="A282:D282" si="120">A122</f>
+        <v>6.9</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="120"/>
+        <v>3.2</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="120"/>
+        <v>5.7</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="120"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" ref="A283:D283" si="121">A123</f>
+        <v>5.6</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="121"/>
+        <v>2.8</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="121"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" ref="A284:D284" si="122">A124</f>
+        <v>7.7</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="122"/>
+        <v>2.8</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="122"/>
+        <v>6.7</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" ref="A285:D285" si="123">A125</f>
+        <v>6.3</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="123"/>
+        <v>2.7</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="123"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="123"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" ref="A286:D286" si="124">A126</f>
+        <v>6.7</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="124"/>
+        <v>3.3</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="124"/>
+        <v>5.7</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="124"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" ref="A287:D287" si="125">A127</f>
+        <v>7.2</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="125"/>
+        <v>3.2</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="125"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" ref="A288:D288" si="126">A128</f>
+        <v>6.2</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="126"/>
+        <v>2.8</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="126"/>
+        <v>4.8</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="126"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" ref="A289:D289" si="127">A129</f>
+        <v>6.1</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="127"/>
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="127"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="127"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" ref="A290:D290" si="128">A130</f>
+        <v>6.4</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="128"/>
+        <v>2.8</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="128"/>
+        <v>5.6</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="128"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" ref="A291:D291" si="129">A131</f>
+        <v>7.2</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="129"/>
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="129"/>
+        <v>5.8</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="129"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" ref="A292:D292" si="130">A132</f>
+        <v>7.4</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="130"/>
+        <v>2.8</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="130"/>
+        <v>6.1</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="130"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" ref="A293:D293" si="131">A133</f>
+        <v>7.9</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="131"/>
+        <v>3.8</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="131"/>
+        <v>6.4</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="131"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" ref="A294:D294" si="132">A134</f>
+        <v>6.4</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="132"/>
+        <v>2.8</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="132"/>
+        <v>5.6</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="132"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" ref="A295:D295" si="133">A135</f>
+        <v>6.3</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="133"/>
+        <v>2.8</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="133"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="133"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" ref="A296:D296" si="134">A136</f>
+        <v>6.1</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="134"/>
+        <v>2.6</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="134"/>
+        <v>5.6</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="134"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" ref="A297:D297" si="135">A137</f>
+        <v>7.7</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="135"/>
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="135"/>
+        <v>6.1</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="135"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" ref="A298:D298" si="136">A138</f>
+        <v>6.3</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="136"/>
+        <v>3.4</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="136"/>
+        <v>5.6</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="136"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" ref="A299:D299" si="137">A139</f>
+        <v>6.4</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="137"/>
+        <v>3.1</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="137"/>
+        <v>5.5</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="137"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" ref="A300:D300" si="138">A140</f>
+        <v>6</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="138"/>
+        <v>4.8</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="138"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" ref="A301:D301" si="139">A141</f>
+        <v>6.9</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="139"/>
+        <v>3.1</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="139"/>
+        <v>5.4</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="139"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" ref="A302:D302" si="140">A142</f>
+        <v>6.7</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="140"/>
+        <v>3.1</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="140"/>
+        <v>5.6</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="140"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" ref="A303:D303" si="141">A143</f>
+        <v>6.9</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="141"/>
+        <v>3.1</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="141"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="141"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" ref="A304:D304" si="142">A144</f>
+        <v>5.8</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="142"/>
+        <v>2.7</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="142"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="142"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" ref="A305:D305" si="143">A145</f>
+        <v>6.8</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="143"/>
+        <v>3.2</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="143"/>
+        <v>5.9</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="143"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" ref="A306:D306" si="144">A146</f>
+        <v>6.7</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="144"/>
+        <v>3.3</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="144"/>
+        <v>5.7</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="144"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" ref="A307:D307" si="145">A147</f>
+        <v>6.7</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="145"/>
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="145"/>
+        <v>5.2</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="145"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" ref="A308:D308" si="146">A148</f>
+        <v>6.3</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="146"/>
+        <v>2.5</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="146"/>
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="146"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" ref="A309:D309" si="147">A149</f>
+        <v>6.5</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="147"/>
+        <v>5.2</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" ref="A310:D310" si="148">A150</f>
+        <v>6.2</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="148"/>
+        <v>3.4</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="148"/>
+        <v>5.4</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="148"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" ref="A311:D311" si="149">A151</f>
+        <v>5.9</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="149"/>
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="149"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="149"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>150</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f>VLOOKUP(E2,A$154:B$156,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" ref="A316:A379" si="150">VLOOKUP(E3,A$154:B$156,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <f t="shared" ref="A380:A443" si="151">VLOOKUP(E67,A$154:B$156,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <f t="shared" ref="A444:A464" si="152">VLOOKUP(E131,A$154:B$156,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <f t="shared" si="152"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/DecisionTreeLearnerTest.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25095" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="golf" sheetId="1" r:id="rId1"/>
-    <sheet name="Definition" sheetId="2" r:id="rId2"/>
+    <sheet name="iris" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="25">
   <si>
     <t>Outlook</t>
   </si>
@@ -55,13 +55,46 @@
     <t>#0</t>
   </si>
   <si>
-    <t>golf[outlook]</t>
+    <t>typedef</t>
   </si>
   <si>
-    <t>golf[wind]</t>
+    <t>Boolean</t>
   </si>
   <si>
-    <t>golf[play]</t>
+    <t>YesOrNo</t>
+  </si>
+  <si>
+    <t>column-def</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>Virginica</t>
+  </si>
+  <si>
+    <t>Versicolor</t>
+  </si>
+  <si>
+    <t>Setosa</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>petal.width</t>
+  </si>
+  <si>
+    <t>petal.length</t>
+  </si>
+  <si>
+    <t>sepal.width</t>
+  </si>
+  <si>
+    <t>sepal.length</t>
+  </si>
+  <si>
+    <t>iris-variety</t>
   </si>
 </sst>
 </file>
@@ -851,112 +884,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A2:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>80</v>
-      </c>
-      <c r="C3">
-        <v>90</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C6">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -970,30 +987,30 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C7">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1001,16 +1018,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -1018,16 +1035,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1035,19 +1052,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1055,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>70</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -1069,16 +1086,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1086,16 +1103,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1103,340 +1120,531 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <f>VLOOKUP(A2,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <f>B2</f>
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <f>C2</f>
-        <v>85</v>
-      </c>
-      <c r="D19">
-        <f>IF(D2,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>VLOOKUP(E2,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f>VLOOKUP(A3,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:C20" si="0">B3</f>
-        <v>80</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:D32" si="1">IF(D3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f>VLOOKUP(E3,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f>VLOOKUP(A4,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" ref="A21:A34" si="0">VLOOKUP(A4,A$37:B$39,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21:C21" si="2">B4</f>
-        <v>83</v>
+        <f>B4</f>
+        <v>85</v>
       </c>
       <c r="C21">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f>C4</f>
+        <v>85</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>VLOOKUP(E4,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <f t="shared" ref="D21:D34" si="1">VLOOKUP(D4,A$42:B$43,2,FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f>VLOOKUP(A5,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:C22" si="3">B5</f>
-        <v>70</v>
+        <f t="shared" ref="B22:C22" si="2">B5</f>
+        <v>80</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
-        <v>96</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f>VLOOKUP(E5,Definition!$A$10:$B$11,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f>VLOOKUP(A6,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:C23" si="4">B6</f>
-        <v>68</v>
+        <f t="shared" ref="B23:C23" si="3">B6</f>
+        <v>83</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23">
-        <f>VLOOKUP(E6,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f>VLOOKUP(A7,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="5">B7</f>
-        <v>65</v>
+        <f t="shared" ref="B24:C24" si="4">B7</f>
+        <v>70</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>96</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <f>VLOOKUP(E7,Definition!$A$10:$B$11,2,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f>VLOOKUP(A8,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:C25" si="6">B8</f>
-        <v>64</v>
+        <f t="shared" ref="B25:C25" si="5">B8</f>
+        <v>68</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
-        <v>65</v>
+        <f t="shared" si="5"/>
+        <v>80</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <f>VLOOKUP(E8,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f>VLOOKUP(A9,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26:C26" si="7">B9</f>
-        <v>72</v>
+        <f t="shared" ref="B26:C26" si="6">B9</f>
+        <v>65</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
-        <v>95</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>VLOOKUP(E9,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f>VLOOKUP(A10,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27:C27" si="8">B10</f>
-        <v>69</v>
+        <f t="shared" ref="B27:C27" si="7">B10</f>
+        <v>64</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
-        <v>70</v>
+        <f t="shared" si="7"/>
+        <v>65</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>VLOOKUP(E10,Definition!$A$10:$B$11,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f>VLOOKUP(A11,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:C28" si="9">B11</f>
-        <v>75</v>
+        <f t="shared" ref="B28:C28" si="8">B11</f>
+        <v>72</v>
       </c>
       <c r="C28">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <f t="shared" si="8"/>
+        <v>95</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28">
-        <f>VLOOKUP(E11,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f>VLOOKUP(A12,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:C29" si="10">B12</f>
-        <v>75</v>
+        <f t="shared" ref="B29:C29" si="9">B12</f>
+        <v>69</v>
       </c>
       <c r="C29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>70</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <f>VLOOKUP(E12,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f>VLOOKUP(A13,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:C30" si="11">B13</f>
-        <v>72</v>
+        <f t="shared" ref="B30:C30" si="10">B13</f>
+        <v>75</v>
       </c>
       <c r="C30">
-        <f t="shared" si="11"/>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>80</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f>VLOOKUP(E13,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f>VLOOKUP(A14,Definition!$A$2:$B$4,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:C31" si="12">B14</f>
-        <v>81</v>
+        <f t="shared" ref="B31:C31" si="11">B14</f>
+        <v>75</v>
       </c>
       <c r="C31">
-        <f t="shared" si="12"/>
-        <v>75</v>
+        <f t="shared" si="11"/>
+        <v>70</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <f>VLOOKUP(E14,Definition!$A$10:$B$11,2,FALSE)</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f>VLOOKUP(A15,Definition!$A$2:$B$4,2,FALSE)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:C32" si="13">B15</f>
-        <v>71</v>
+        <f t="shared" ref="B32:C32" si="12">B15</f>
+        <v>72</v>
       </c>
       <c r="C32">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E32">
-        <f>VLOOKUP(E15,Definition!$A$10:$B$11,2,FALSE)</f>
-        <v>0</v>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:C33" si="13">B16</f>
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:C34" si="14">B17</f>
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="b">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="b">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f>A20</f>
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f>VLOOKUP(E4,A$46:B$47,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" ref="A52:A64" si="15">VLOOKUP(E5,A$46:B$47,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f>VLOOKUP(E14,A$46:B$47,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <f>B41</f>
+        <v>Boolean</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="str">
+        <f>B45</f>
+        <v>YesOrNo</v>
       </c>
     </row>
   </sheetData>
@@ -1446,72 +1654,6261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E464"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H148" sqref="H148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+      <c r="C2">
+        <v>1.4</v>
+      </c>
+      <c r="D2">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.4</v>
+      </c>
+      <c r="D3">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4.7</v>
+      </c>
+      <c r="B4">
+        <v>3.2</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B5">
+        <v>3.1</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.6</v>
+      </c>
+      <c r="C6">
+        <v>1.4</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5.4</v>
+      </c>
+      <c r="B7">
+        <v>3.9</v>
+      </c>
+      <c r="C7">
+        <v>1.7</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B8">
+        <v>3.4</v>
+      </c>
+      <c r="C8">
+        <v>1.4</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3.4</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B10">
+        <v>2.9</v>
+      </c>
+      <c r="C10">
+        <v>1.4</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B11">
+        <v>3.1</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5.4</v>
+      </c>
+      <c r="B12">
+        <v>3.7</v>
+      </c>
+      <c r="C12">
+        <v>1.5</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4.8</v>
+      </c>
+      <c r="B13">
+        <v>3.4</v>
+      </c>
+      <c r="C13">
+        <v>1.6</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4.8</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1.4</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4.3</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.8</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>5.7</v>
+      </c>
+      <c r="B17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>5.4</v>
+      </c>
+      <c r="B18">
+        <v>3.9</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>0.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B19">
+        <v>3.5</v>
+      </c>
+      <c r="C19">
+        <v>1.4</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5.7</v>
+      </c>
+      <c r="B20">
+        <v>3.8</v>
+      </c>
+      <c r="C20">
+        <v>1.7</v>
+      </c>
+      <c r="D20">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B21">
+        <v>3.8</v>
+      </c>
+      <c r="C21">
+        <v>1.5</v>
+      </c>
+      <c r="D21">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>5.4</v>
+      </c>
+      <c r="B22">
+        <v>3.4</v>
+      </c>
+      <c r="C22">
+        <v>1.7</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23">
+        <v>3.7</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B24">
+        <v>3.6</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B25">
+        <v>3.3</v>
+      </c>
+      <c r="C25">
+        <v>1.7</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4.8</v>
+      </c>
+      <c r="B26">
+        <v>3.4</v>
+      </c>
+      <c r="C26">
+        <v>1.9</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1.6</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>3.4</v>
+      </c>
+      <c r="C28">
+        <v>1.6</v>
+      </c>
+      <c r="D28">
+        <v>0.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5.2</v>
+      </c>
+      <c r="B29">
+        <v>3.5</v>
+      </c>
+      <c r="C29">
+        <v>1.5</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5.2</v>
+      </c>
+      <c r="B30">
+        <v>3.4</v>
+      </c>
+      <c r="C30">
+        <v>1.4</v>
+      </c>
+      <c r="D30">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4.7</v>
+      </c>
+      <c r="B31">
+        <v>3.2</v>
+      </c>
+      <c r="C31">
+        <v>1.6</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>4.8</v>
+      </c>
+      <c r="B32">
+        <v>3.1</v>
+      </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
+      <c r="D32">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5.4</v>
+      </c>
+      <c r="B33">
+        <v>3.4</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>0.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5.2</v>
+      </c>
+      <c r="B34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5.5</v>
+      </c>
+      <c r="B35">
+        <v>4.2</v>
+      </c>
+      <c r="C35">
+        <v>1.4</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B36">
+        <v>3.1</v>
+      </c>
+      <c r="C36">
+        <v>1.5</v>
+      </c>
+      <c r="D36">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3.2</v>
+      </c>
+      <c r="C37">
+        <v>1.2</v>
+      </c>
+      <c r="D37">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5.5</v>
+      </c>
+      <c r="B38">
+        <v>3.5</v>
+      </c>
+      <c r="C38">
+        <v>1.3</v>
+      </c>
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B39">
+        <v>3.6</v>
+      </c>
+      <c r="C39">
+        <v>1.4</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>1.3</v>
+      </c>
+      <c r="D40">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B41">
+        <v>3.4</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>3.5</v>
+      </c>
+      <c r="C42">
+        <v>1.3</v>
+      </c>
+      <c r="D42">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4.5</v>
+      </c>
+      <c r="B43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C43">
+        <v>1.3</v>
+      </c>
+      <c r="D43">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B44">
+        <v>3.2</v>
+      </c>
+      <c r="C44">
+        <v>1.3</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>3.5</v>
+      </c>
+      <c r="C45">
+        <v>1.6</v>
+      </c>
+      <c r="D45">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B46">
+        <v>3.8</v>
+      </c>
+      <c r="C46">
+        <v>1.9</v>
+      </c>
+      <c r="D46">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4.8</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>1.4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B48">
+        <v>3.8</v>
+      </c>
+      <c r="C48">
+        <v>1.6</v>
+      </c>
+      <c r="D48">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B49">
+        <v>3.2</v>
+      </c>
+      <c r="C49">
+        <v>1.4</v>
+      </c>
+      <c r="D49">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>5.3</v>
+      </c>
+      <c r="B50">
+        <v>3.7</v>
+      </c>
+      <c r="C50">
+        <v>1.5</v>
+      </c>
+      <c r="D50">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>3.3</v>
+      </c>
+      <c r="C51">
+        <v>1.4</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52">
+        <v>3.2</v>
+      </c>
+      <c r="C52">
+        <v>4.7</v>
+      </c>
+      <c r="D52">
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.4</v>
+      </c>
+      <c r="B53">
+        <v>3.2</v>
+      </c>
+      <c r="C53">
+        <v>4.5</v>
+      </c>
+      <c r="D53">
+        <v>1.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.9</v>
+      </c>
+      <c r="B54">
+        <v>3.1</v>
+      </c>
+      <c r="C54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D54">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5.5</v>
+      </c>
+      <c r="B55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>1.3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6.5</v>
+      </c>
+      <c r="B56">
+        <v>2.8</v>
+      </c>
+      <c r="C56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D56">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5.7</v>
+      </c>
+      <c r="B57">
+        <v>2.8</v>
+      </c>
+      <c r="C57">
+        <v>4.5</v>
+      </c>
+      <c r="D57">
+        <v>1.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>6.3</v>
+      </c>
+      <c r="B58">
+        <v>3.3</v>
+      </c>
+      <c r="C58">
+        <v>4.7</v>
+      </c>
+      <c r="D58">
+        <v>1.6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B59">
+        <v>2.4</v>
+      </c>
+      <c r="C59">
+        <v>3.3</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>6.6</v>
+      </c>
+      <c r="B60">
+        <v>2.9</v>
+      </c>
+      <c r="C60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D60">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.2</v>
+      </c>
+      <c r="B61">
+        <v>2.7</v>
+      </c>
+      <c r="C61">
+        <v>3.9</v>
+      </c>
+      <c r="D61">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3.5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>5.9</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4.2</v>
+      </c>
+      <c r="D63">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6.1</v>
+      </c>
+      <c r="B65">
+        <v>2.9</v>
+      </c>
+      <c r="C65">
+        <v>4.7</v>
+      </c>
+      <c r="D65">
+        <v>1.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>5.6</v>
+      </c>
+      <c r="B66">
+        <v>2.9</v>
+      </c>
+      <c r="C66">
+        <v>3.6</v>
+      </c>
+      <c r="D66">
+        <v>1.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6.7</v>
+      </c>
+      <c r="B67">
+        <v>3.1</v>
+      </c>
+      <c r="C67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>1.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>5.6</v>
+      </c>
+      <c r="B68">
+        <v>3</v>
+      </c>
+      <c r="C68">
+        <v>4.5</v>
+      </c>
+      <c r="D68">
+        <v>1.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>5.8</v>
+      </c>
+      <c r="B69">
+        <v>2.7</v>
+      </c>
+      <c r="C69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6.2</v>
+      </c>
+      <c r="B70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C70">
+        <v>4.5</v>
+      </c>
+      <c r="D70">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>5.6</v>
+      </c>
+      <c r="B71">
+        <v>2.5</v>
+      </c>
+      <c r="C71">
+        <v>3.9</v>
+      </c>
+      <c r="D71">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5.9</v>
+      </c>
+      <c r="B72">
+        <v>3.2</v>
+      </c>
+      <c r="C72">
+        <v>4.8</v>
+      </c>
+      <c r="D72">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6.1</v>
+      </c>
+      <c r="B73">
+        <v>2.8</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>6.3</v>
+      </c>
+      <c r="B74">
+        <v>2.5</v>
+      </c>
+      <c r="C74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D74">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>6.1</v>
+      </c>
+      <c r="B75">
+        <v>2.8</v>
+      </c>
+      <c r="C75">
+        <v>4.7</v>
+      </c>
+      <c r="D75">
+        <v>1.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6.4</v>
+      </c>
+      <c r="B76">
+        <v>2.9</v>
+      </c>
+      <c r="C76">
+        <v>4.3</v>
+      </c>
+      <c r="D76">
+        <v>1.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>6.6</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D77">
+        <v>1.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>6.8</v>
+      </c>
+      <c r="B78">
+        <v>2.8</v>
+      </c>
+      <c r="C78">
+        <v>4.8</v>
+      </c>
+      <c r="D78">
+        <v>1.4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>6.7</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80">
+        <v>2.9</v>
+      </c>
+      <c r="C80">
+        <v>4.5</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5.7</v>
+      </c>
+      <c r="B81">
+        <v>2.6</v>
+      </c>
+      <c r="C81">
+        <v>3.5</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>5.5</v>
+      </c>
+      <c r="B82">
+        <v>2.4</v>
+      </c>
+      <c r="C82">
+        <v>3.8</v>
+      </c>
+      <c r="D82">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>5.5</v>
+      </c>
+      <c r="B83">
+        <v>2.4</v>
+      </c>
+      <c r="C83">
+        <v>3.7</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>5.8</v>
+      </c>
+      <c r="B84">
+        <v>2.7</v>
+      </c>
+      <c r="C84">
+        <v>3.9</v>
+      </c>
+      <c r="D84">
+        <v>1.2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85">
+        <v>2.7</v>
+      </c>
+      <c r="C85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D85">
+        <v>1.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>5.4</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>4.5</v>
+      </c>
+      <c r="D86">
+        <v>1.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87">
+        <v>3.4</v>
+      </c>
+      <c r="C87">
+        <v>4.5</v>
+      </c>
+      <c r="D87">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>6.7</v>
+      </c>
+      <c r="B88">
+        <v>3.1</v>
+      </c>
+      <c r="C88">
+        <v>4.7</v>
+      </c>
+      <c r="D88">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6.3</v>
+      </c>
+      <c r="B89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D89">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5.6</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+      <c r="C90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D90">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>5.5</v>
+      </c>
+      <c r="B91">
+        <v>2.5</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1.3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>5.5</v>
+      </c>
+      <c r="B92">
+        <v>2.6</v>
+      </c>
+      <c r="C92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D92">
+        <v>1.2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>6.1</v>
+      </c>
+      <c r="B93">
+        <v>3</v>
+      </c>
+      <c r="C93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D93">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>5.8</v>
+      </c>
+      <c r="B94">
+        <v>2.6</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>1.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C95">
+        <v>3.3</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>5.6</v>
+      </c>
+      <c r="B96">
+        <v>2.7</v>
+      </c>
+      <c r="C96">
+        <v>4.2</v>
+      </c>
+      <c r="D96">
+        <v>1.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>5.7</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>4.2</v>
+      </c>
+      <c r="D97">
+        <v>1.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>5.7</v>
+      </c>
+      <c r="B98">
+        <v>2.9</v>
+      </c>
+      <c r="C98">
+        <v>4.2</v>
+      </c>
+      <c r="D98">
+        <v>1.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>6.2</v>
+      </c>
+      <c r="B99">
+        <v>2.9</v>
+      </c>
+      <c r="C99">
+        <v>4.3</v>
+      </c>
+      <c r="D99">
+        <v>1.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B100">
+        <v>2.5</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>5.7</v>
+      </c>
+      <c r="B101">
+        <v>2.8</v>
+      </c>
+      <c r="C101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D101">
+        <v>1.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>6.3</v>
+      </c>
+      <c r="B102">
+        <v>3.3</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>2.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>5.8</v>
+      </c>
+      <c r="B103">
+        <v>2.7</v>
+      </c>
+      <c r="C103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D103">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>7.1</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>5.9</v>
+      </c>
+      <c r="D104">
+        <v>2.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>6.3</v>
+      </c>
+      <c r="B105">
+        <v>2.9</v>
+      </c>
+      <c r="C105">
+        <v>5.6</v>
+      </c>
+      <c r="D105">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>6.5</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5.8</v>
+      </c>
+      <c r="D106">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>7.6</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>6.6</v>
+      </c>
+      <c r="D107">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B108">
+        <v>2.5</v>
+      </c>
+      <c r="C108">
+        <v>4.5</v>
+      </c>
+      <c r="D108">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>7.3</v>
+      </c>
+      <c r="B109">
+        <v>2.9</v>
+      </c>
+      <c r="C109">
+        <v>6.3</v>
+      </c>
+      <c r="D109">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>6.7</v>
+      </c>
+      <c r="B110">
+        <v>2.5</v>
+      </c>
+      <c r="C110">
+        <v>5.8</v>
+      </c>
+      <c r="D110">
+        <v>1.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>7.2</v>
+      </c>
+      <c r="B111">
+        <v>3.6</v>
+      </c>
+      <c r="C111">
+        <v>6.1</v>
+      </c>
+      <c r="D111">
+        <v>2.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>6.5</v>
+      </c>
+      <c r="B112">
+        <v>3.2</v>
+      </c>
+      <c r="C112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>6.4</v>
+      </c>
+      <c r="B113">
+        <v>2.7</v>
+      </c>
+      <c r="C113">
+        <v>5.3</v>
+      </c>
+      <c r="D113">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>6.8</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
+        <v>5.5</v>
+      </c>
+      <c r="D114">
+        <v>2.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>5.7</v>
+      </c>
+      <c r="B115">
+        <v>2.5</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>5.8</v>
+      </c>
+      <c r="B116">
+        <v>2.8</v>
+      </c>
+      <c r="C116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D116">
+        <v>2.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>6.4</v>
+      </c>
+      <c r="B117">
+        <v>3.2</v>
+      </c>
+      <c r="C117">
+        <v>5.3</v>
+      </c>
+      <c r="D117">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>6.5</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>5.5</v>
+      </c>
+      <c r="D118">
+        <v>1.8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>7.7</v>
+      </c>
+      <c r="B119">
+        <v>3.8</v>
+      </c>
+      <c r="C119">
+        <v>6.7</v>
+      </c>
+      <c r="D119">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>7.7</v>
+      </c>
+      <c r="B120">
+        <v>2.6</v>
+      </c>
+      <c r="C120">
+        <v>6.9</v>
+      </c>
+      <c r="D120">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>6.9</v>
+      </c>
+      <c r="B122">
+        <v>3.2</v>
+      </c>
+      <c r="C122">
+        <v>5.7</v>
+      </c>
+      <c r="D122">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>5.6</v>
+      </c>
+      <c r="B123">
+        <v>2.8</v>
+      </c>
+      <c r="C123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>7.7</v>
+      </c>
+      <c r="B124">
+        <v>2.8</v>
+      </c>
+      <c r="C124">
+        <v>6.7</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>6.3</v>
+      </c>
+      <c r="B125">
+        <v>2.7</v>
+      </c>
+      <c r="C125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D125">
+        <v>1.8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>6.7</v>
+      </c>
+      <c r="B126">
+        <v>3.3</v>
+      </c>
+      <c r="C126">
+        <v>5.7</v>
+      </c>
+      <c r="D126">
+        <v>2.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>7.2</v>
+      </c>
+      <c r="B127">
+        <v>3.2</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>1.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>6.2</v>
+      </c>
+      <c r="B128">
+        <v>2.8</v>
+      </c>
+      <c r="C128">
+        <v>4.8</v>
+      </c>
+      <c r="D128">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>6.1</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D129">
+        <v>1.8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>6.4</v>
+      </c>
+      <c r="B130">
+        <v>2.8</v>
+      </c>
+      <c r="C130">
+        <v>5.6</v>
+      </c>
+      <c r="D130">
+        <v>2.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>7.2</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
+        <v>5.8</v>
+      </c>
+      <c r="D131">
+        <v>1.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>7.4</v>
+      </c>
+      <c r="B132">
+        <v>2.8</v>
+      </c>
+      <c r="C132">
+        <v>6.1</v>
+      </c>
+      <c r="D132">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>7.9</v>
+      </c>
+      <c r="B133">
+        <v>3.8</v>
+      </c>
+      <c r="C133">
+        <v>6.4</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>6.4</v>
+      </c>
+      <c r="B134">
+        <v>2.8</v>
+      </c>
+      <c r="C134">
+        <v>5.6</v>
+      </c>
+      <c r="D134">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>6.3</v>
+      </c>
+      <c r="B135">
+        <v>2.8</v>
+      </c>
+      <c r="C135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D135">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>6.1</v>
+      </c>
+      <c r="B136">
+        <v>2.6</v>
+      </c>
+      <c r="C136">
+        <v>5.6</v>
+      </c>
+      <c r="D136">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>7.7</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>6.1</v>
+      </c>
+      <c r="D137">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>6.3</v>
+      </c>
+      <c r="B138">
+        <v>3.4</v>
+      </c>
+      <c r="C138">
+        <v>5.6</v>
+      </c>
+      <c r="D138">
+        <v>2.4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>6.4</v>
+      </c>
+      <c r="B139">
+        <v>3.1</v>
+      </c>
+      <c r="C139">
+        <v>5.5</v>
+      </c>
+      <c r="D139">
+        <v>1.8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>6</v>
+      </c>
+      <c r="B140">
+        <v>3</v>
+      </c>
+      <c r="C140">
+        <v>4.8</v>
+      </c>
+      <c r="D140">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>6.9</v>
+      </c>
+      <c r="B141">
+        <v>3.1</v>
+      </c>
+      <c r="C141">
+        <v>5.4</v>
+      </c>
+      <c r="D141">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>6.7</v>
+      </c>
+      <c r="B142">
+        <v>3.1</v>
+      </c>
+      <c r="C142">
+        <v>5.6</v>
+      </c>
+      <c r="D142">
+        <v>2.4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>6.9</v>
+      </c>
+      <c r="B143">
+        <v>3.1</v>
+      </c>
+      <c r="C143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D143">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>5.8</v>
+      </c>
+      <c r="B144">
+        <v>2.7</v>
+      </c>
+      <c r="C144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D144">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>6.8</v>
+      </c>
+      <c r="B145">
+        <v>3.2</v>
+      </c>
+      <c r="C145">
+        <v>5.9</v>
+      </c>
+      <c r="D145">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>6.7</v>
+      </c>
+      <c r="B146">
+        <v>3.3</v>
+      </c>
+      <c r="C146">
+        <v>5.7</v>
+      </c>
+      <c r="D146">
+        <v>2.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>6.7</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147">
+        <v>5.2</v>
+      </c>
+      <c r="D147">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>6.3</v>
+      </c>
+      <c r="B148">
+        <v>2.5</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6.5</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>5.2</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>6.2</v>
+      </c>
+      <c r="B150">
+        <v>3.4</v>
+      </c>
+      <c r="C150">
+        <v>5.4</v>
+      </c>
+      <c r="D150">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>5.9</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D151">
+        <v>1.8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="str">
+        <f>E2</f>
+        <v>Setosa</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="str">
+        <f>E52</f>
+        <v>Versicolor</v>
+      </c>
+      <c r="B155">
+        <f>B154+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="str">
+        <f>E102</f>
+        <v>Virginica</v>
+      </c>
+      <c r="B156">
+        <f>B155+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>-1</v>
+      </c>
+      <c r="C158" t="str">
+        <f>B153</f>
+        <v>iris-variety</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>150</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <f>A2</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B162">
+        <f t="shared" ref="B162:D162" si="0">B2</f>
+        <v>3.5</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <f t="shared" ref="A163:D163" si="1">A3</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <f t="shared" ref="A164:D164" si="2">A4</f>
+        <v>4.7</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <f t="shared" ref="A165:D165" si="3">A5</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <f t="shared" ref="A166:D166" si="4">A6</f>
+        <v>5</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="4"/>
+        <v>3.6</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>1.4</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <f t="shared" ref="A167:D167" si="5">A7</f>
+        <v>5.4</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="5"/>
+        <v>3.9</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <f t="shared" ref="A168:D168" si="6">A8</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="6"/>
+        <v>3.4</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="6"/>
+        <v>1.4</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <f t="shared" ref="A169:D169" si="7">A9</f>
+        <v>5</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="7"/>
+        <v>3.4</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="7"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <f t="shared" ref="A170:D170" si="8">A10</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>2.9</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="8"/>
+        <v>1.4</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <f t="shared" ref="A171:D171" si="9">A11</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="9"/>
+        <v>3.1</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <f t="shared" ref="A172:D172" si="10">A12</f>
+        <v>5.4</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="10"/>
+        <v>3.7</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <f t="shared" ref="A173:D173" si="11">A13</f>
+        <v>4.8</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="11"/>
+        <v>3.4</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="11"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <f t="shared" ref="A174:D174" si="12">A14</f>
+        <v>4.8</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="12"/>
+        <v>1.4</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <f t="shared" ref="A175:D175" si="13">A15</f>
+        <v>4.3</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="13"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="13"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <f t="shared" ref="A176:D176" si="14">A16</f>
+        <v>5.8</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="14"/>
+        <v>1.2</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <f t="shared" ref="A177:D177" si="15">A17</f>
+        <v>5.7</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="15"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="15"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <f t="shared" ref="A178:D178" si="16">A18</f>
+        <v>5.4</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="16"/>
+        <v>3.9</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="16"/>
+        <v>1.3</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <f t="shared" ref="A179:D179" si="17">A19</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="17"/>
+        <v>3.5</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="17"/>
+        <v>1.4</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="17"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <f t="shared" ref="A180:D180" si="18">A20</f>
+        <v>5.7</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="18"/>
+        <v>3.8</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="18"/>
+        <v>1.7</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="18"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <f t="shared" ref="A181:D181" si="19">A21</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="19"/>
+        <v>3.8</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="19"/>
+        <v>1.5</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="19"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <f t="shared" ref="A182:D182" si="20">A22</f>
+        <v>5.4</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="20"/>
+        <v>3.4</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="20"/>
+        <v>1.7</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="20"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <f t="shared" ref="A183:D183" si="21">A23</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="21"/>
+        <v>3.7</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="21"/>
+        <v>1.5</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="21"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <f t="shared" ref="A184:D184" si="22">A24</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="22"/>
+        <v>3.6</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="22"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <f t="shared" ref="A185:D185" si="23">A25</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="23"/>
+        <v>3.3</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="23"/>
+        <v>1.7</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="23"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <f t="shared" ref="A186:D186" si="24">A26</f>
+        <v>4.8</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="24"/>
+        <v>3.4</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="24"/>
+        <v>1.9</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="24"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <f t="shared" ref="A187:D187" si="25">A27</f>
+        <v>5</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="25"/>
+        <v>1.6</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="25"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <f t="shared" ref="A188:D188" si="26">A28</f>
+        <v>5</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="26"/>
+        <v>3.4</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="26"/>
+        <v>1.6</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <f t="shared" ref="A189:D189" si="27">A29</f>
+        <v>5.2</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="27"/>
+        <v>3.5</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="27"/>
+        <v>1.5</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <f t="shared" ref="A190:D190" si="28">A30</f>
+        <v>5.2</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="28"/>
+        <v>3.4</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="28"/>
+        <v>1.4</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <f t="shared" ref="A191:D191" si="29">A31</f>
+        <v>4.7</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="29"/>
+        <v>3.2</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="29"/>
+        <v>1.6</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="29"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <f t="shared" ref="A192:D192" si="30">A32</f>
+        <v>4.8</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="30"/>
+        <v>3.1</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="30"/>
+        <v>1.6</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="30"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <f t="shared" ref="A193:D193" si="31">A33</f>
+        <v>5.4</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="31"/>
+        <v>3.4</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="31"/>
+        <v>1.5</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="31"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <f t="shared" ref="A194:D194" si="32">A34</f>
+        <v>5.2</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="32"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="32"/>
+        <v>1.5</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="32"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <f t="shared" ref="A195:D195" si="33">A35</f>
+        <v>5.5</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="33"/>
+        <v>4.2</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="33"/>
+        <v>1.4</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="33"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <f t="shared" ref="A196:D196" si="34">A36</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="34"/>
+        <v>3.1</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="34"/>
+        <v>1.5</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <f t="shared" ref="A197:D197" si="35">A37</f>
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="35"/>
+        <v>3.2</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="35"/>
+        <v>1.2</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="35"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <f t="shared" ref="A198:D198" si="36">A38</f>
+        <v>5.5</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="36"/>
+        <v>3.5</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="36"/>
+        <v>1.3</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="36"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <f t="shared" ref="A199:D199" si="37">A39</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="37"/>
+        <v>3.6</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="37"/>
+        <v>1.4</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="37"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <f t="shared" ref="A200:D200" si="38">A40</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="38"/>
+        <v>1.3</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="38"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <f t="shared" ref="A201:D201" si="39">A41</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="39"/>
+        <v>3.4</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="39"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <f t="shared" ref="A202:D202" si="40">A42</f>
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="40"/>
+        <v>3.5</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="40"/>
+        <v>1.3</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="40"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <f t="shared" ref="A203:D203" si="41">A43</f>
+        <v>4.5</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="41"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="41"/>
+        <v>1.3</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="41"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <f t="shared" ref="A204:D204" si="42">A44</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="42"/>
+        <v>3.2</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="42"/>
+        <v>1.3</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="42"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <f t="shared" ref="A205:D205" si="43">A45</f>
+        <v>5</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="43"/>
+        <v>3.5</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="43"/>
+        <v>1.6</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="43"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <f t="shared" ref="A206:D206" si="44">A46</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="44"/>
+        <v>3.8</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="44"/>
+        <v>1.9</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="44"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <f t="shared" ref="A207:D207" si="45">A47</f>
+        <v>4.8</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="45"/>
+        <v>1.4</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="45"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <f t="shared" ref="A208:D208" si="46">A48</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="46"/>
+        <v>3.8</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="46"/>
+        <v>1.6</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="46"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <f t="shared" ref="A209:D209" si="47">A49</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="47"/>
+        <v>3.2</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="47"/>
+        <v>1.4</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="47"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <f t="shared" ref="A210:D210" si="48">A50</f>
+        <v>5.3</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="48"/>
+        <v>3.7</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="48"/>
+        <v>1.5</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="48"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <f t="shared" ref="A211:D211" si="49">A51</f>
+        <v>5</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="49"/>
+        <v>3.3</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="49"/>
+        <v>1.4</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="49"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <f t="shared" ref="A212:D212" si="50">A52</f>
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B212">
+        <f t="shared" si="50"/>
+        <v>3.2</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="50"/>
+        <v>4.7</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="50"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <f t="shared" ref="A213:D213" si="51">A53</f>
+        <v>6.4</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="51"/>
+        <v>3.2</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="51"/>
+        <v>4.5</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="51"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <f t="shared" ref="A214:D214" si="52">A54</f>
+        <v>6.9</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="52"/>
+        <v>3.1</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="52"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="52"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <f t="shared" ref="A215:D215" si="53">A55</f>
+        <v>5.5</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="53"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="53"/>
+        <v>4</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="53"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <f t="shared" ref="A216:D216" si="54">A56</f>
+        <v>6.5</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="54"/>
+        <v>2.8</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="54"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="54"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <f t="shared" ref="A217:D217" si="55">A57</f>
+        <v>5.7</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="55"/>
+        <v>2.8</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="55"/>
+        <v>4.5</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="55"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <f t="shared" ref="A218:D218" si="56">A58</f>
+        <v>6.3</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="56"/>
+        <v>3.3</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="56"/>
+        <v>4.7</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="56"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <f t="shared" ref="A219:D219" si="57">A59</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="57"/>
+        <v>2.4</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="57"/>
+        <v>3.3</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <f t="shared" ref="A220:D220" si="58">A60</f>
+        <v>6.6</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="58"/>
+        <v>2.9</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="58"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="58"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <f t="shared" ref="A221:D221" si="59">A61</f>
+        <v>5.2</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="59"/>
+        <v>2.7</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="59"/>
+        <v>3.9</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="59"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <f t="shared" ref="A222:D222" si="60">A62</f>
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="B222">
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="C222">
+        <f t="shared" si="60"/>
+        <v>3.5</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <f t="shared" ref="A223:D223" si="61">A63</f>
+        <v>5.9</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="61"/>
+        <v>3</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="61"/>
+        <v>4.2</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="61"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <f t="shared" ref="A224:D224" si="62">A64</f>
         <v>6</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+      <c r="B224">
+        <f t="shared" si="62"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="62"/>
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <f t="shared" ref="A225:D225" si="63">A65</f>
+        <v>6.1</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="63"/>
+        <v>2.9</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="63"/>
+        <v>4.7</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="63"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <f t="shared" ref="A226:D226" si="64">A66</f>
+        <v>5.6</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="64"/>
+        <v>2.9</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="64"/>
+        <v>3.6</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="64"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <f t="shared" ref="A227:D227" si="65">A67</f>
+        <v>6.7</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="65"/>
+        <v>3.1</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="65"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="65"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <f t="shared" ref="A228:D228" si="66">A68</f>
+        <v>5.6</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="66"/>
+        <v>3</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="66"/>
+        <v>4.5</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="66"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <f t="shared" ref="A229:D229" si="67">A69</f>
+        <v>5.8</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="67"/>
+        <v>2.7</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="67"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <f t="shared" ref="A230:D230" si="68">A70</f>
+        <v>6.2</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="68"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="68"/>
+        <v>4.5</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="68"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <f t="shared" ref="A231:D231" si="69">A71</f>
+        <v>5.6</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="69"/>
+        <v>2.5</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="69"/>
+        <v>3.9</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="69"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <f t="shared" ref="A232:D232" si="70">A72</f>
+        <v>5.9</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="70"/>
+        <v>3.2</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="70"/>
+        <v>4.8</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="70"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <f t="shared" ref="A233:D233" si="71">A73</f>
+        <v>6.1</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="71"/>
+        <v>2.8</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="71"/>
+        <v>4</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="71"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <f t="shared" ref="A234:D234" si="72">A74</f>
+        <v>6.3</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="72"/>
+        <v>2.5</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="72"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="72"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <f t="shared" ref="A235:D235" si="73">A75</f>
+        <v>6.1</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="73"/>
+        <v>2.8</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="73"/>
+        <v>4.7</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="73"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <f t="shared" ref="A236:D236" si="74">A76</f>
+        <v>6.4</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="74"/>
+        <v>2.9</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="74"/>
+        <v>4.3</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="74"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <f t="shared" ref="A237:D237" si="75">A77</f>
+        <v>6.6</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="75"/>
+        <v>3</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="75"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="75"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <f t="shared" ref="A238:D238" si="76">A78</f>
+        <v>6.8</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="76"/>
+        <v>2.8</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="76"/>
+        <v>4.8</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="76"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <f t="shared" ref="A239:D239" si="77">A79</f>
+        <v>6.7</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="77"/>
+        <v>3</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="77"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <f t="shared" ref="A240:D240" si="78">A80</f>
+        <v>6</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="78"/>
+        <v>2.9</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="78"/>
+        <v>4.5</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="78"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <f t="shared" ref="A241:D241" si="79">A81</f>
+        <v>5.7</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="79"/>
+        <v>2.6</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="79"/>
+        <v>3.5</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <f t="shared" ref="A242:D242" si="80">A82</f>
+        <v>5.5</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="80"/>
+        <v>2.4</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="80"/>
+        <v>3.8</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="80"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <f t="shared" ref="A243:D243" si="81">A83</f>
+        <v>5.5</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="81"/>
+        <v>2.4</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="81"/>
+        <v>3.7</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <f t="shared" ref="A244:D244" si="82">A84</f>
+        <v>5.8</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="82"/>
+        <v>2.7</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="82"/>
+        <v>3.9</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="82"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <f t="shared" ref="A245:D245" si="83">A85</f>
+        <v>6</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="83"/>
+        <v>2.7</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="83"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="83"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <f t="shared" ref="A246:D246" si="84">A86</f>
+        <v>5.4</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="84"/>
+        <v>3</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="84"/>
+        <v>4.5</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="84"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <f t="shared" ref="A247:D247" si="85">A87</f>
+        <v>6</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="85"/>
+        <v>3.4</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="85"/>
+        <v>4.5</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="85"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <f t="shared" ref="A248:D248" si="86">A88</f>
+        <v>6.7</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="86"/>
+        <v>3.1</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="86"/>
+        <v>4.7</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="86"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <f t="shared" ref="A249:D249" si="87">A89</f>
+        <v>6.3</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="87"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="87"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="87"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <f t="shared" ref="A250:D250" si="88">A90</f>
+        <v>5.6</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="88"/>
+        <v>3</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="88"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="88"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <f t="shared" ref="A251:D251" si="89">A91</f>
+        <v>5.5</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="89"/>
+        <v>2.5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="89"/>
+        <v>4</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="89"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <f t="shared" ref="A252:D252" si="90">A92</f>
+        <v>5.5</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="90"/>
+        <v>2.6</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="90"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="90"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <f t="shared" ref="A253:D253" si="91">A93</f>
+        <v>6.1</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="91"/>
+        <v>3</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="91"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="91"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <f t="shared" ref="A254:D254" si="92">A94</f>
+        <v>5.8</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="92"/>
+        <v>2.6</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="92"/>
+        <v>4</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="92"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <f t="shared" ref="A255:D255" si="93">A95</f>
+        <v>5</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="93"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="93"/>
+        <v>3.3</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <f t="shared" ref="A256:D256" si="94">A96</f>
+        <v>5.6</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="94"/>
+        <v>2.7</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="94"/>
+        <v>4.2</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="94"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <f t="shared" ref="A257:D257" si="95">A97</f>
+        <v>5.7</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="95"/>
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="95"/>
+        <v>4.2</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="95"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <f t="shared" ref="A258:D258" si="96">A98</f>
+        <v>5.7</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="96"/>
+        <v>2.9</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="96"/>
+        <v>4.2</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="96"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <f t="shared" ref="A259:D259" si="97">A99</f>
+        <v>6.2</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="97"/>
+        <v>2.9</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="97"/>
+        <v>4.3</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="97"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <f t="shared" ref="A260:D260" si="98">A100</f>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="98"/>
+        <v>2.5</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="98"/>
+        <v>3</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="98"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <f t="shared" ref="A261:D261" si="99">A101</f>
+        <v>5.7</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="99"/>
+        <v>2.8</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="99"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="99"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <f t="shared" ref="A262:D262" si="100">A102</f>
+        <v>6.3</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="100"/>
+        <v>3.3</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="100"/>
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="100"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <f t="shared" ref="A263:D263" si="101">A103</f>
+        <v>5.8</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="101"/>
+        <v>2.7</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="101"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="101"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <f t="shared" ref="A264:D264" si="102">A104</f>
+        <v>7.1</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="102"/>
+        <v>3</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="102"/>
+        <v>5.9</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="102"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <f t="shared" ref="A265:D265" si="103">A105</f>
+        <v>6.3</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="103"/>
+        <v>2.9</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="103"/>
+        <v>5.6</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="103"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <f t="shared" ref="A266:D266" si="104">A106</f>
+        <v>6.5</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="104"/>
+        <v>3</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="104"/>
+        <v>5.8</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="104"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <f t="shared" ref="A267:D267" si="105">A107</f>
+        <v>7.6</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="105"/>
+        <v>6.6</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="105"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <f t="shared" ref="A268:D268" si="106">A108</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="106"/>
+        <v>2.5</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="106"/>
+        <v>4.5</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="106"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <f t="shared" ref="A269:D269" si="107">A109</f>
+        <v>7.3</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="107"/>
+        <v>2.9</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="107"/>
+        <v>6.3</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="107"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <f t="shared" ref="A270:D270" si="108">A110</f>
+        <v>6.7</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="108"/>
+        <v>2.5</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="108"/>
+        <v>5.8</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="108"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <f t="shared" ref="A271:D271" si="109">A111</f>
+        <v>7.2</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="109"/>
+        <v>3.6</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="109"/>
+        <v>6.1</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="109"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <f t="shared" ref="A272:D272" si="110">A112</f>
+        <v>6.5</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="110"/>
+        <v>3.2</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="110"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <f t="shared" ref="A273:D273" si="111">A113</f>
+        <v>6.4</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="111"/>
+        <v>2.7</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="111"/>
+        <v>5.3</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="111"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <f t="shared" ref="A274:D274" si="112">A114</f>
+        <v>6.8</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="112"/>
+        <v>3</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="112"/>
+        <v>5.5</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="112"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <f t="shared" ref="A275:D275" si="113">A115</f>
+        <v>5.7</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="113"/>
+        <v>2.5</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <f t="shared" ref="A276:D276" si="114">A116</f>
+        <v>5.8</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="114"/>
+        <v>2.8</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="114"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="114"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <f t="shared" ref="A277:D277" si="115">A117</f>
+        <v>6.4</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="115"/>
+        <v>3.2</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="115"/>
+        <v>5.3</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="115"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <f t="shared" ref="A278:D278" si="116">A118</f>
+        <v>6.5</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="116"/>
+        <v>3</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="116"/>
+        <v>5.5</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="116"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <f t="shared" ref="A279:D279" si="117">A119</f>
+        <v>7.7</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="117"/>
+        <v>3.8</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="117"/>
+        <v>6.7</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="117"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <f t="shared" ref="A280:D280" si="118">A120</f>
+        <v>7.7</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="118"/>
+        <v>2.6</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="118"/>
+        <v>6.9</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="118"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <f t="shared" ref="A281:D281" si="119">A121</f>
+        <v>6</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="119"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="119"/>
+        <v>5</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="119"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <f t="shared" ref="A282:D282" si="120">A122</f>
+        <v>6.9</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="120"/>
+        <v>3.2</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="120"/>
+        <v>5.7</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="120"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <f t="shared" ref="A283:D283" si="121">A123</f>
+        <v>5.6</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="121"/>
+        <v>2.8</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="121"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <f t="shared" ref="A284:D284" si="122">A124</f>
+        <v>7.7</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="122"/>
+        <v>2.8</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="122"/>
+        <v>6.7</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="122"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <f t="shared" ref="A285:D285" si="123">A125</f>
+        <v>6.3</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="123"/>
+        <v>2.7</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="123"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="123"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <f t="shared" ref="A286:D286" si="124">A126</f>
+        <v>6.7</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="124"/>
+        <v>3.3</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="124"/>
+        <v>5.7</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="124"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <f t="shared" ref="A287:D287" si="125">A127</f>
+        <v>7.2</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="125"/>
+        <v>3.2</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="125"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <f t="shared" ref="A288:D288" si="126">A128</f>
+        <v>6.2</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="126"/>
+        <v>2.8</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="126"/>
+        <v>4.8</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="126"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <f t="shared" ref="A289:D289" si="127">A129</f>
+        <v>6.1</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="127"/>
+        <v>3</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="127"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="127"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <f t="shared" ref="A290:D290" si="128">A130</f>
+        <v>6.4</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="128"/>
+        <v>2.8</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="128"/>
+        <v>5.6</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="128"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <f t="shared" ref="A291:D291" si="129">A131</f>
+        <v>7.2</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="129"/>
+        <v>3</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="129"/>
+        <v>5.8</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="129"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <f t="shared" ref="A292:D292" si="130">A132</f>
+        <v>7.4</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="130"/>
+        <v>2.8</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="130"/>
+        <v>6.1</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="130"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <f t="shared" ref="A293:D293" si="131">A133</f>
+        <v>7.9</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="131"/>
+        <v>3.8</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="131"/>
+        <v>6.4</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="131"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <f t="shared" ref="A294:D294" si="132">A134</f>
+        <v>6.4</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="132"/>
+        <v>2.8</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="132"/>
+        <v>5.6</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="132"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <f t="shared" ref="A295:D295" si="133">A135</f>
+        <v>6.3</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="133"/>
+        <v>2.8</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="133"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="133"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <f t="shared" ref="A296:D296" si="134">A136</f>
+        <v>6.1</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="134"/>
+        <v>2.6</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="134"/>
+        <v>5.6</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="134"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <f t="shared" ref="A297:D297" si="135">A137</f>
+        <v>7.7</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="135"/>
+        <v>3</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="135"/>
+        <v>6.1</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="135"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <f t="shared" ref="A298:D298" si="136">A138</f>
+        <v>6.3</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="136"/>
+        <v>3.4</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="136"/>
+        <v>5.6</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="136"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <f t="shared" ref="A299:D299" si="137">A139</f>
+        <v>6.4</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="137"/>
+        <v>3.1</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="137"/>
+        <v>5.5</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="137"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <f t="shared" ref="A300:D300" si="138">A140</f>
+        <v>6</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="138"/>
+        <v>4.8</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="138"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <f t="shared" ref="A301:D301" si="139">A141</f>
+        <v>6.9</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="139"/>
+        <v>3.1</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="139"/>
+        <v>5.4</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="139"/>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <f t="shared" ref="A302:D302" si="140">A142</f>
+        <v>6.7</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="140"/>
+        <v>3.1</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="140"/>
+        <v>5.6</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="140"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <f t="shared" ref="A303:D303" si="141">A143</f>
+        <v>6.9</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="141"/>
+        <v>3.1</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="141"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="141"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <f t="shared" ref="A304:D304" si="142">A144</f>
+        <v>5.8</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="142"/>
+        <v>2.7</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="142"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="142"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <f t="shared" ref="A305:D305" si="143">A145</f>
+        <v>6.8</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="143"/>
+        <v>3.2</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="143"/>
+        <v>5.9</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="143"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <f t="shared" ref="A306:D306" si="144">A146</f>
+        <v>6.7</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="144"/>
+        <v>3.3</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="144"/>
+        <v>5.7</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="144"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <f t="shared" ref="A307:D307" si="145">A147</f>
+        <v>6.7</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="145"/>
+        <v>3</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="145"/>
+        <v>5.2</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="145"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <f t="shared" ref="A308:D308" si="146">A148</f>
+        <v>6.3</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="146"/>
+        <v>2.5</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="146"/>
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="146"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <f t="shared" ref="A309:D309" si="147">A149</f>
+        <v>6.5</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="147"/>
+        <v>5.2</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <f t="shared" ref="A310:D310" si="148">A150</f>
+        <v>6.2</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="148"/>
+        <v>3.4</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="148"/>
+        <v>5.4</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="148"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <f t="shared" ref="A311:D311" si="149">A151</f>
+        <v>5.9</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="149"/>
+        <v>3</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="149"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="149"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>150</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <f>VLOOKUP(E2,A$154:B$156,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <f t="shared" ref="A316:A379" si="150">VLOOKUP(E3,A$154:B$156,2,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <f t="shared" ref="A380:A443" si="151">VLOOKUP(E67,A$154:B$156,2,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <f t="shared" si="151"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <f t="shared" si="151"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <f t="shared" ref="A444:A464" si="152">VLOOKUP(E131,A$154:B$156,2,FALSE)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <f t="shared" si="152"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
